--- a/template.xlsx
+++ b/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon.garisch\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\git\basic-css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{42502DC2-650F-4A99-9A36-B803693FA30E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DD5E90B9-68A2-40A9-B7BA-E29C5F676A7D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13392" xr2:uid="{C4DA3095-A914-432F-9950-E755B3AEDCDD}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>5 by 5</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Matrix and matrix operations</t>
   </si>
   <si>
-    <t>The first 3 exerciese from project Euler to kick things off.</t>
-  </si>
-  <si>
     <t>HEADING FOR SECTION</t>
   </si>
   <si>
@@ -174,6 +171,33 @@
   </si>
   <si>
     <t>Use a css framework like bootstrap or bulma.</t>
+  </si>
+  <si>
+    <t>Reading files</t>
+  </si>
+  <si>
+    <t>Plotting</t>
+  </si>
+  <si>
+    <t>The first 3 exercises from project Euler to kick things off.</t>
+  </si>
+  <si>
+    <t>Maybes</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Lua</t>
+  </si>
+  <si>
+    <t>VB.Net</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Java</t>
   </si>
 </sst>
 </file>
@@ -288,9 +312,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -299,6 +320,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,7 +640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0486A15-2E4C-46DC-B7FA-91299B61240E}">
-  <dimension ref="B2:H12"/>
+  <dimension ref="B2:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -624,52 +648,70 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -682,14 +724,14 @@
   <dimension ref="B1:AC45"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="12"/>
-    <col min="4" max="4" width="11.44140625" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="3" width="8.88671875" style="11"/>
+    <col min="4" max="4" width="11.44140625" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:29" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -786,15 +828,15 @@
     <row r="5" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="3" t="s">
         <v>8</v>
       </c>
@@ -820,13 +862,13 @@
     <row r="6" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -850,13 +892,13 @@
     <row r="7" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1052,8 +1094,8 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="11" t="s">
-        <v>34</v>
+      <c r="L13" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1076,7 +1118,7 @@
     <row r="14" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="3"/>
@@ -1118,25 +1160,25 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
+      <c r="L15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
       <c r="AC15" s="1"/>
     </row>
     <row r="16" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
@@ -1152,23 +1194,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
@@ -1184,23 +1226,23 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
@@ -1216,23 +1258,23 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
       <c r="AC18" s="1"/>
     </row>
     <row r="19" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
@@ -1280,8 +1322,8 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="11" t="s">
-        <v>36</v>
+      <c r="L20" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1307,7 +1349,7 @@
       <c r="D21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="3"/>
@@ -1316,23 +1358,23 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
       <c r="AC21" s="1"/>
     </row>
     <row r="22" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
@@ -1348,25 +1390,25 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
+      <c r="L22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
       <c r="AC22" s="1"/>
     </row>
     <row r="23" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
@@ -1375,32 +1417,30 @@
       <c r="D23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
       <c r="AC23" s="1"/>
     </row>
     <row r="24" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
@@ -1409,76 +1449,78 @@
       <c r="D24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="9" t="s">
+      <c r="L24" s="7"/>
+      <c r="M24" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="N24" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="O24" s="9" t="s">
+      <c r="O24" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="9" t="s">
+      <c r="P24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Q24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
       <c r="AC24" s="1"/>
     </row>
     <row r="25" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
       <c r="AC25" s="1"/>
     </row>
     <row r="26" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
@@ -1494,23 +1536,23 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
       <c r="AC26" s="1"/>
     </row>
     <row r="27" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
@@ -1526,23 +1568,23 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
       <c r="AC27" s="1"/>
     </row>
     <row r="28" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
@@ -1558,23 +1600,23 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
       <c r="AC28" s="1"/>
     </row>
     <row r="29" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
@@ -1590,23 +1632,23 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
       <c r="AC29" s="1"/>
     </row>
     <row r="30" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
@@ -1676,7 +1718,9 @@
     <row r="32" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1684,8 +1728,8 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="11" t="s">
-        <v>36</v>
+      <c r="L32" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -1709,7 +1753,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1748,25 +1792,25 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
+      <c r="L34" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
       <c r="AC34" s="1"/>
     </row>
     <row r="35" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
@@ -1780,23 +1824,23 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
       <c r="AC35" s="1"/>
     </row>
     <row r="36" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
@@ -1810,41 +1854,43 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="9" t="s">
+      <c r="L36" s="7"/>
+      <c r="M36" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N36" s="9" t="s">
+      <c r="N36" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="O36" s="9" t="s">
+      <c r="O36" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P36" s="9" t="s">
+      <c r="P36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q36" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Q36" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
       <c r="AC36" s="1"/>
     </row>
     <row r="37" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -1852,25 +1898,25 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="8"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
       <c r="AC37" s="1"/>
     </row>
     <row r="38" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
@@ -1884,23 +1930,23 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="8"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
       <c r="AC38" s="1"/>
     </row>
     <row r="39" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
@@ -1914,23 +1960,23 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
       <c r="AC39" s="1"/>
     </row>
     <row r="40" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
@@ -1944,23 +1990,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="8"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
       <c r="AC40" s="1"/>
     </row>
     <row r="41" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
@@ -1974,23 +2020,23 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
       <c r="AC41" s="1"/>
     </row>
     <row r="42" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
@@ -2004,23 +2050,23 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="8"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
       <c r="AC42" s="1"/>
     </row>
     <row r="43" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
@@ -2034,23 +2080,23 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
       <c r="AC43" s="1"/>
     </row>
     <row r="44" spans="2:29" customFormat="1" x14ac:dyDescent="0.3">
@@ -2197,15 +2243,15 @@
     </row>
     <row r="6" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -2214,7 +2260,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -2222,13 +2268,13 @@
     </row>
     <row r="7" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -2237,7 +2283,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -2245,13 +2291,13 @@
     </row>
     <row r="8" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -2289,7 +2335,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -2332,7 +2378,7 @@
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2375,8 +2421,8 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
-      <c r="C14" s="11" t="s">
-        <v>34</v>
+      <c r="C14" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2419,88 +2465,88 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
-      <c r="C16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
+      <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
@@ -2526,8 +2572,8 @@
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
-      <c r="C21" s="11" t="s">
-        <v>36</v>
+      <c r="C21" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2549,207 +2595,207 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
-      <c r="C23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
+      <c r="C23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.3">
@@ -2796,8 +2842,8 @@
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
-      <c r="C33" s="11" t="s">
-        <v>36</v>
+      <c r="C33" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2840,228 +2886,228 @@
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
-      <c r="C35" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
+      <c r="C35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9" t="s">
+      <c r="C39" s="7"/>
+      <c r="D39" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
       <c r="T44" s="1"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.3">

--- a/template.xlsx
+++ b/template.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\git\basic-css\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon.garisch\Desktop\git\basic-css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DD5E90B9-68A2-40A9-B7BA-E29C5F676A7D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F396BA8E-148B-4412-BCC3-8CFA80E71581}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13392" xr2:uid="{C4DA3095-A914-432F-9950-E755B3AEDCDD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13392" activeTab="3" xr2:uid="{C4DA3095-A914-432F-9950-E755B3AEDCDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
     <sheet name="Desktop" sheetId="1" r:id="rId2"/>
     <sheet name="Mobile" sheetId="2" r:id="rId3"/>
+    <sheet name="Desktop2" sheetId="4" r:id="rId4"/>
+    <sheet name="Mobile2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>5 by 5</t>
   </si>
@@ -198,6 +200,57 @@
   </si>
   <si>
     <t>Java</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Exercises</t>
+  </si>
+  <si>
+    <t>Nav Burger</t>
+  </si>
+  <si>
+    <t>A bootstrap 4 carousel with comments about the course</t>
+  </si>
+  <si>
+    <t>This will only be for the landing page at this stage</t>
+  </si>
+  <si>
+    <t>Nav 'Capstone'</t>
+  </si>
+  <si>
+    <t>Exercises Navigation</t>
+  </si>
+  <si>
+    <t>Vertical for large view</t>
+  </si>
+  <si>
+    <t>Horizontal for medium or smaller view</t>
+  </si>
+  <si>
+    <t>Jumbotron exercise description</t>
+  </si>
+  <si>
+    <t>Exercise solutions</t>
+  </si>
+  <si>
+    <t>We'll use Bootstrap 4 as the css framework, not BS3.</t>
+  </si>
+  <si>
+    <t>This site will demonstrate practicing JS programming</t>
+  </si>
+  <si>
+    <t>with the use of exercises from project Euler.</t>
+  </si>
+  <si>
+    <t>highlight.js will be used for code syntax highlighting.</t>
+  </si>
+  <si>
+    <t>Collapses &lt; md view</t>
   </si>
 </sst>
 </file>
@@ -280,7 +333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -303,11 +356,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -324,6 +457,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -642,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0486A15-2E4C-46DC-B7FA-91299B61240E}">
   <dimension ref="B2:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3159,4 +3308,621 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A01D9C0-2703-4106-815B-CD36CE52E4BC}">
+  <dimension ref="B1:S29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="16"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="19"/>
+    </row>
+    <row r="4" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="S4" s="22"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="16"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="19"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="19"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="19"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="19"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="19"/>
+    </row>
+    <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="22"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="14"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="L12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15">
+        <v>1</v>
+      </c>
+      <c r="O12" s="15">
+        <v>2</v>
+      </c>
+      <c r="P12" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>4</v>
+      </c>
+      <c r="R12" s="15">
+        <v>5</v>
+      </c>
+      <c r="S12" s="16"/>
+    </row>
+    <row r="13" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+      <c r="L13" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="22"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>7</v>
+      </c>
+      <c r="R13" s="21">
+        <v>8</v>
+      </c>
+      <c r="S13" s="22"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="16"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B15" s="17">
+        <v>1</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="19"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="17">
+        <v>2</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="19"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B17" s="17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="19"/>
+    </row>
+    <row r="18" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="17">
+        <v>4</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="22"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B19" s="17">
+        <v>5</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="19"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B20" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="19"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B21" s="17"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="19"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B22" s="17"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="19"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B23" s="17"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="19"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B24" s="17"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="19"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B25" s="17"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="19"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B26" s="17"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="19"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B27" s="17"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="19"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="19"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B28" s="17"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="19"/>
+    </row>
+    <row r="29" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="20"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="22"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B1D212-339A-49CF-B9DB-C3D0E158D062}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>